--- a/Taiwan_code.xlsx
+++ b/Taiwan_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\1072project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\1072Rproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D04434E-CE8F-4786-B029-4DE4D19A9C6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B0D11C-4DE2-4932-BF42-DD701905A538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0ED14806-7039-4868-B344-4FF15AB97A53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0ED14806-7039-4868-B344-4FF15AB97A53}"/>
   </bookViews>
   <sheets>
     <sheet name="distinctcode" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="412">
   <si>
     <t>County</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1271,6 +1271,10 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1381,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,6 +1468,12 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1781,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D9902C-7FF1-4ED4-BDA2-966CE17B669C}">
   <dimension ref="A1:D365"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:XFD176"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2827,7 +2837,18 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="D75" s="17"/>
+      <c r="A75" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D75" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="16" t="s">
@@ -6900,7 +6921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062175C2-B8DC-4753-A368-BDE85D81E136}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
